--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnc-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnc-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H2">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I2">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J2">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>64.06511179144846</v>
+        <v>107.8503604889736</v>
       </c>
       <c r="R2">
-        <v>576.586006123036</v>
+        <v>970.6532444007621</v>
       </c>
       <c r="S2">
-        <v>0.001293284573264883</v>
+        <v>0.001885253918427035</v>
       </c>
       <c r="T2">
-        <v>0.001431374155594</v>
+        <v>0.002007021076585786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H3">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I3">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J3">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>421.9095241036161</v>
+        <v>545.9683884541206</v>
       </c>
       <c r="R3">
-        <v>3797.185716932545</v>
+        <v>4913.715496087085</v>
       </c>
       <c r="S3">
-        <v>0.008517101798136088</v>
+        <v>0.009543677360036801</v>
       </c>
       <c r="T3">
-        <v>0.00942650956056696</v>
+        <v>0.01016009643184294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H4">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I4">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J4">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>354.3242458622285</v>
+        <v>636.3288269989184</v>
       </c>
       <c r="R4">
-        <v>3188.918212760056</v>
+        <v>5726.959442990265</v>
       </c>
       <c r="S4">
-        <v>0.007152755505977291</v>
+        <v>0.01112320263992478</v>
       </c>
       <c r="T4">
-        <v>0.007916486119286322</v>
+        <v>0.011841642082935</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H5">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I5">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J5">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>156.4921383936202</v>
+        <v>194.3736641995118</v>
       </c>
       <c r="R5">
-        <v>938.952830361721</v>
+        <v>1166.241985197071</v>
       </c>
       <c r="S5">
-        <v>0.00315911207773335</v>
+        <v>0.003397705027686162</v>
       </c>
       <c r="T5">
-        <v>0.00233094941678972</v>
+        <v>0.002411440190605653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H6">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I6">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J6">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>364.7651542093876</v>
+        <v>737.5904864453357</v>
       </c>
       <c r="R6">
-        <v>3282.886387884488</v>
+        <v>6638.314378008021</v>
       </c>
       <c r="S6">
-        <v>0.00736352647505341</v>
+        <v>0.01289328425478688</v>
       </c>
       <c r="T6">
-        <v>0.008149762015497967</v>
+        <v>0.01372605196193387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>517.298425</v>
       </c>
       <c r="I7">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J7">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>1842.309139809522</v>
+        <v>2396.703724597506</v>
       </c>
       <c r="R7">
-        <v>16580.7822582857</v>
+        <v>21570.33352137755</v>
       </c>
       <c r="S7">
-        <v>0.03719075676409872</v>
+        <v>0.04189503927126947</v>
       </c>
       <c r="T7">
-        <v>0.04116177456963339</v>
+        <v>0.04460100891448238</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>517.298425</v>
       </c>
       <c r="I8">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J8">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>12132.77789882093</v>
@@ -948,10 +948,10 @@
         <v>109195.0010893884</v>
       </c>
       <c r="S8">
-        <v>0.2449247967985083</v>
+        <v>0.2120842894864094</v>
       </c>
       <c r="T8">
-        <v>0.2710764757028408</v>
+        <v>0.2257826571006908</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>517.298425</v>
       </c>
       <c r="I9">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J9">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>10189.23995220802</v>
+        <v>14140.81198080921</v>
       </c>
       <c r="R9">
-        <v>91703.15956987219</v>
+        <v>127267.3078272829</v>
       </c>
       <c r="S9">
-        <v>0.2056905306960507</v>
+        <v>0.2471852766712458</v>
       </c>
       <c r="T9">
-        <v>0.2276529974725369</v>
+        <v>0.2631507911225062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>517.298425</v>
       </c>
       <c r="I10">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J10">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>4500.216870134096</v>
+        <v>4319.467110156421</v>
       </c>
       <c r="R10">
-        <v>27001.30122080457</v>
+        <v>25916.80266093852</v>
       </c>
       <c r="S10">
-        <v>0.09084602979289073</v>
+        <v>0.07550547126610346</v>
       </c>
       <c r="T10">
-        <v>0.06703070196716011</v>
+        <v>0.05358820925832301</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>517.298425</v>
       </c>
       <c r="I11">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J11">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>10489.48731521118</v>
+        <v>16391.09835216506</v>
       </c>
       <c r="R11">
-        <v>94405.3858369006</v>
+        <v>147519.8851694855</v>
       </c>
       <c r="S11">
-        <v>0.2117516343432198</v>
+        <v>0.2865209003997849</v>
       </c>
       <c r="T11">
-        <v>0.2343612713468882</v>
+        <v>0.3050270737347157</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H12">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I12">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J12">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>0.9275999559551112</v>
+        <v>0.7284046331091112</v>
       </c>
       <c r="R12">
-        <v>8.348399603596</v>
+        <v>6.555641697982001</v>
       </c>
       <c r="S12">
-        <v>1.872549160771249E-05</v>
+        <v>1.27327130159176E-05</v>
       </c>
       <c r="T12">
-        <v>2.072489326181912E-05</v>
+        <v>1.355510954534257E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H13">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I13">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J13">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>6.108835917582778</v>
+        <v>3.687385947326111</v>
       </c>
       <c r="R13">
-        <v>54.979523258245</v>
+        <v>33.186473525935</v>
       </c>
       <c r="S13">
-        <v>0.0001233192767778922</v>
+        <v>6.445651896230853E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001364866088372224</v>
+        <v>6.861971791504934E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H14">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I14">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J14">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>5.130267405535111</v>
+        <v>4.297666356101667</v>
       </c>
       <c r="R14">
-        <v>46.172406649816</v>
+        <v>38.678997204915</v>
       </c>
       <c r="S14">
-        <v>0.0001035648812086808</v>
+        <v>7.512438809846222E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001146229510919147</v>
+        <v>7.997661683951012E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H15">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I15">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J15">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>2.265852608730167</v>
+        <v>1.312769627430167</v>
       </c>
       <c r="R15">
-        <v>13.595115652381</v>
+        <v>7.876617764581</v>
       </c>
       <c r="S15">
-        <v>4.574084306138479E-05</v>
+        <v>2.294757359070442E-05</v>
       </c>
       <c r="T15">
-        <v>3.374986035123644E-05</v>
+        <v>1.628649361336403E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H16">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I16">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J16">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>5.28144151344089</v>
+        <v>4.981571922691111</v>
       </c>
       <c r="R16">
-        <v>47.53297362096801</v>
+        <v>44.83414730422</v>
       </c>
       <c r="S16">
-        <v>0.0001066166380255279</v>
+        <v>8.707924521160678E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001180005571711129</v>
+        <v>9.270362934383728E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H17">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I17">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J17">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>422.8975259603553</v>
+        <v>270.377761006418</v>
       </c>
       <c r="R17">
-        <v>2537.385155762132</v>
+        <v>1622.266566038508</v>
       </c>
       <c r="S17">
-        <v>0.008537046624952865</v>
+        <v>0.004726277511561882</v>
       </c>
       <c r="T17">
-        <v>0.006299055988484675</v>
+        <v>0.003354362856830292</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H18">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I18">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J18">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>2785.049287096485</v>
+        <v>1368.727093551065</v>
       </c>
       <c r="R18">
-        <v>16710.29572257891</v>
+        <v>8212.362561306389</v>
       </c>
       <c r="S18">
-        <v>0.05622188392505122</v>
+        <v>0.02392572546512913</v>
       </c>
       <c r="T18">
-        <v>0.04148329160893385</v>
+        <v>0.01698071360105682</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H19">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I19">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J19">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>2338.914937832145</v>
+        <v>1595.258121788085</v>
       </c>
       <c r="R19">
-        <v>14033.48962699287</v>
+        <v>9571.548730728509</v>
       </c>
       <c r="S19">
-        <v>0.0472157547640598</v>
+        <v>0.02788555004701183</v>
       </c>
       <c r="T19">
-        <v>0.03483812328353272</v>
+        <v>0.01979110475234606</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H20">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I20">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J20">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>1033.013699786307</v>
+        <v>487.2892022484285</v>
       </c>
       <c r="R20">
-        <v>4132.054799145227</v>
+        <v>1949.156808993714</v>
       </c>
       <c r="S20">
-        <v>0.02085348241104984</v>
+        <v>0.008517949071110953</v>
       </c>
       <c r="T20">
-        <v>0.01025782170601718</v>
+        <v>0.004030274271257571</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H21">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I21">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J21">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N21">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O21">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P21">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q21">
-        <v>2407.835980585743</v>
+        <v>1849.11819821978</v>
       </c>
       <c r="R21">
-        <v>14447.01588351446</v>
+        <v>11094.70918931868</v>
       </c>
       <c r="S21">
-        <v>0.04860706617949474</v>
+        <v>0.03232309389624143</v>
       </c>
       <c r="T21">
-        <v>0.03586470178172511</v>
+        <v>0.02294054577162562</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H22">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I22">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J22">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N22">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O22">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P22">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q22">
-        <v>0.6462738995671112</v>
+        <v>0.9022808518128891</v>
       </c>
       <c r="R22">
-        <v>5.816465096104</v>
+        <v>8.120527666316001</v>
       </c>
       <c r="S22">
-        <v>1.304635301558078E-05</v>
+        <v>1.577211706747927E-05</v>
       </c>
       <c r="T22">
-        <v>1.443936850194952E-05</v>
+        <v>1.679082645971672E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H23">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I23">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J23">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P23">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q23">
-        <v>4.256124835847778</v>
+        <v>4.567595512558889</v>
       </c>
       <c r="R23">
-        <v>38.30512352263001</v>
+        <v>41.10835961303</v>
       </c>
       <c r="S23">
-        <v>8.591853566118651E-05</v>
+        <v>7.984282387931164E-05</v>
       </c>
       <c r="T23">
-        <v>9.509242897828602E-05</v>
+        <v>8.49998129024482E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H24">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I24">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J24">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N24">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O24">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P24">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q24">
-        <v>3.574340318487111</v>
+        <v>5.323554909363334</v>
       </c>
       <c r="R24">
-        <v>32.169062866384</v>
+        <v>47.91199418427</v>
       </c>
       <c r="S24">
-        <v>7.215532860609336E-05</v>
+        <v>9.3057201731512E-05</v>
       </c>
       <c r="T24">
-        <v>7.985966483341099E-05</v>
+        <v>9.906769766009551E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H25">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I25">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J25">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N25">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O25">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P25">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q25">
-        <v>1.578656178115667</v>
+        <v>1.626138610096334</v>
       </c>
       <c r="R25">
-        <v>9.471937068694</v>
+        <v>9.756831660577999</v>
       </c>
       <c r="S25">
-        <v>3.186838553084076E-05</v>
+        <v>2.84253494628146E-05</v>
       </c>
       <c r="T25">
-        <v>2.351407384078674E-05</v>
+        <v>2.017421452659821E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H26">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I26">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J26">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N26">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O26">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P26">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q26">
-        <v>3.67966576573689</v>
+        <v>6.17071439892889</v>
       </c>
       <c r="R26">
-        <v>33.116991891632</v>
+        <v>55.53642959036001</v>
       </c>
       <c r="S26">
-        <v>7.428153696336256E-05</v>
+        <v>0.0001078657822498812</v>
       </c>
       <c r="T26">
-        <v>8.221289764459349E-05</v>
+        <v>0.000114832753456655</v>
       </c>
     </row>
   </sheetData>
